--- a/fullstackopen.xlsx
+++ b/fullstackopen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olenj\Desktop\Reactihommia\Full Stack Open\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF337D33-42BA-45A5-9D05-2D855D4EE68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817E7F9D-4AEC-4EA7-B72A-46C87A9AD0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A39D8CF8-623D-4699-BD5A-AA6F35350729}"/>
   </bookViews>
@@ -974,10 +974,10 @@
     <t>Yhteensä: 297</t>
   </si>
   <si>
-    <t>Tehty: 36</t>
-  </si>
-  <si>
     <t>Maali 7op arvosana 5</t>
+  </si>
+  <si>
+    <t>Tehty: 54</t>
   </si>
 </sst>
 </file>
@@ -1647,7 +1647,7 @@
   <dimension ref="B3:AC28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1923,34 +1923,34 @@
       <c r="J11" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="K11" s="20" t="s">
+      <c r="K11" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="L11" s="20" t="s">
+      <c r="L11" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="M11" s="20" t="s">
+      <c r="M11" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="N11" s="20" t="s">
+      <c r="N11" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="O11" s="20" t="s">
+      <c r="O11" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="P11" s="20" t="s">
+      <c r="P11" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="Q11" s="20" t="s">
+      <c r="Q11" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="R11" s="20" t="s">
+      <c r="R11" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="S11" s="20" t="s">
+      <c r="S11" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="T11" s="20" t="s">
+      <c r="T11" s="19" t="s">
         <v>63</v>
       </c>
       <c r="U11" s="20" t="s">
@@ -2764,24 +2764,24 @@
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B24" s="24" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B25">
-        <f>36/116</f>
-        <v>0.31034482758620691</v>
+        <f>54/116</f>
+        <v>0.46551724137931033</v>
       </c>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B26">
-        <f>36/138</f>
-        <v>0.2608695652173913</v>
+        <f>54/138</f>
+        <v>0.39130434782608697</v>
       </c>
     </row>
     <row r="28" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B28" s="26" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>

--- a/fullstackopen.xlsx
+++ b/fullstackopen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olenj\Desktop\Reactihommia\Full Stack Open\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817E7F9D-4AEC-4EA7-B72A-46C87A9AD0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FEAD63-9066-48E3-B20C-372A07FB8075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A39D8CF8-623D-4699-BD5A-AA6F35350729}"/>
   </bookViews>
@@ -1647,7 +1647,7 @@
   <dimension ref="B3:AC28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+      <selection activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2779,6 +2779,12 @@
         <v>0.39130434782608697</v>
       </c>
     </row>
+    <row r="27" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <f>54/72</f>
+        <v>0.75</v>
+      </c>
+    </row>
     <row r="28" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B28" s="26" t="s">
         <v>312</v>

--- a/fullstackopen.xlsx
+++ b/fullstackopen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olenj\Desktop\Reactihommia\Full Stack Open\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FEAD63-9066-48E3-B20C-372A07FB8075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D70B0BA-F71A-4B55-B51B-822126749315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A39D8CF8-623D-4699-BD5A-AA6F35350729}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="317">
   <si>
     <t>Fullstackopen 2024</t>
   </si>
@@ -977,7 +977,16 @@
     <t>Maali 7op arvosana 5</t>
   </si>
   <si>
-    <t>Tehty: 54</t>
+    <t>Tehty: 58</t>
+  </si>
+  <si>
+    <t>7op 5/5</t>
+  </si>
+  <si>
+    <t>5op 5/5</t>
+  </si>
+  <si>
+    <t>5op 1/5</t>
   </si>
 </sst>
 </file>
@@ -1647,7 +1656,7 @@
   <dimension ref="B3:AC28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA11" sqref="AA11"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1953,16 +1962,16 @@
       <c r="T11" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="U11" s="20" t="s">
+      <c r="U11" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="V11" s="20" t="s">
+      <c r="V11" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="W11" s="20" t="s">
+      <c r="W11" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="X11" s="20" t="s">
+      <c r="X11" s="19" t="s">
         <v>67</v>
       </c>
       <c r="Y11" s="10"/>
@@ -2769,20 +2778,29 @@
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B25">
-        <f>54/116</f>
-        <v>0.46551724137931033</v>
+        <f>58/116</f>
+        <v>0.5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B26">
-        <f>54/138</f>
-        <v>0.39130434782608697</v>
+        <f>58/138</f>
+        <v>0.42028985507246375</v>
+      </c>
+      <c r="C26" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B27">
-        <f>54/72</f>
-        <v>0.75</v>
+        <f>58/72</f>
+        <v>0.80555555555555558</v>
+      </c>
+      <c r="C27" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="28" spans="2:29" x14ac:dyDescent="0.25">

--- a/fullstackopen.xlsx
+++ b/fullstackopen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olenj\Desktop\Reactihommia\Full Stack Open\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D70B0BA-F71A-4B55-B51B-822126749315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF7157A-21D7-4039-A3AF-624372FA7D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A39D8CF8-623D-4699-BD5A-AA6F35350729}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="315">
   <si>
     <t>Fullstackopen 2024</t>
   </si>
@@ -165,12 +165,6 @@
   </si>
   <si>
     <t>2.20</t>
-  </si>
-  <si>
-    <t>2.21</t>
-  </si>
-  <si>
-    <t>2.22</t>
   </si>
   <si>
     <t>Osa 3</t>
@@ -1247,7 +1241,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1309,6 +1303,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20 % - Aksentti4" xfId="4" builtinId="42"/>
@@ -1656,7 +1653,7 @@
   <dimension ref="B3:AC28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1880,7 +1877,7 @@
       <c r="R10" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="S10" s="20" t="s">
+      <c r="S10" s="19" t="s">
         <v>39</v>
       </c>
       <c r="T10" s="20" t="s">
@@ -1892,12 +1889,8 @@
       <c r="V10" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="W10" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="X10" s="20" t="s">
-        <v>44</v>
-      </c>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
       <c r="AA10" s="10"/>
@@ -1906,73 +1899,73 @@
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="E11" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="F11" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="G11" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="H11" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="I11" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="J11" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="K11" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="J11" s="19" t="s">
+      <c r="L11" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="K11" s="19" t="s">
+      <c r="M11" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="L11" s="19" t="s">
+      <c r="N11" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="M11" s="19" t="s">
+      <c r="O11" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="N11" s="19" t="s">
+      <c r="P11" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="O11" s="19" t="s">
+      <c r="Q11" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="P11" s="19" t="s">
+      <c r="R11" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="Q11" s="19" t="s">
+      <c r="S11" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="R11" s="19" t="s">
+      <c r="T11" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="S11" s="19" t="s">
+      <c r="U11" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="T11" s="19" t="s">
+      <c r="V11" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="U11" s="19" t="s">
+      <c r="W11" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="V11" s="19" t="s">
+      <c r="X11" s="19" t="s">
         <v>65</v>
-      </c>
-      <c r="W11" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="X11" s="19" t="s">
-        <v>67</v>
       </c>
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
@@ -1982,76 +1975,76 @@
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="E12" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="F12" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="G12" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="H12" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="I12" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="J12" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="K12" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="J12" s="20" t="s">
+      <c r="L12" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="K12" s="20" t="s">
+      <c r="M12" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="L12" s="20" t="s">
+      <c r="N12" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="M12" s="20" t="s">
+      <c r="O12" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="N12" s="20" t="s">
+      <c r="P12" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="O12" s="20" t="s">
+      <c r="Q12" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="P12" s="20" t="s">
+      <c r="R12" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="Q12" s="20" t="s">
+      <c r="S12" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="R12" s="20" t="s">
+      <c r="T12" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="S12" s="20" t="s">
+      <c r="U12" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="T12" s="20" t="s">
+      <c r="V12" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="U12" s="20" t="s">
+      <c r="W12" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="V12" s="20" t="s">
+      <c r="X12" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="W12" s="20" t="s">
+      <c r="Y12" s="20" t="s">
         <v>89</v>
-      </c>
-      <c r="X12" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y12" s="20" t="s">
-        <v>91</v>
       </c>
       <c r="Z12" s="10"/>
       <c r="AA12" s="10"/>
@@ -2060,76 +2053,76 @@
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="E13" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="F13" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="G13" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="H13" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="I13" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="J13" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="K13" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="J13" s="20" t="s">
+      <c r="L13" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="K13" s="20" t="s">
+      <c r="M13" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="L13" s="20" t="s">
+      <c r="N13" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="M13" s="20" t="s">
+      <c r="O13" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="N13" s="20" t="s">
+      <c r="P13" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="O13" s="20" t="s">
+      <c r="Q13" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="P13" s="20" t="s">
+      <c r="R13" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="Q13" s="20" t="s">
+      <c r="S13" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="R13" s="20" t="s">
+      <c r="T13" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="S13" s="20" t="s">
+      <c r="U13" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="T13" s="20" t="s">
+      <c r="V13" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="U13" s="20" t="s">
+      <c r="W13" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="V13" s="20" t="s">
+      <c r="X13" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="W13" s="20" t="s">
+      <c r="Y13" s="20" t="s">
         <v>113</v>
-      </c>
-      <c r="X13" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y13" s="20" t="s">
-        <v>115</v>
       </c>
       <c r="Z13" s="10"/>
       <c r="AA13" s="10"/>
@@ -2138,79 +2131,79 @@
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="E14" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="F14" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="G14" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="H14" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="I14" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="J14" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="I14" s="20" t="s">
+      <c r="K14" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="J14" s="20" t="s">
+      <c r="L14" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="K14" s="20" t="s">
+      <c r="M14" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="L14" s="20" t="s">
+      <c r="N14" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="M14" s="20" t="s">
+      <c r="O14" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="N14" s="20" t="s">
+      <c r="P14" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="O14" s="20" t="s">
+      <c r="Q14" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="P14" s="20" t="s">
+      <c r="R14" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="Q14" s="20" t="s">
+      <c r="S14" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="R14" s="20" t="s">
+      <c r="T14" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="S14" s="20" t="s">
+      <c r="U14" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="T14" s="20" t="s">
+      <c r="V14" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="U14" s="20" t="s">
+      <c r="W14" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="V14" s="20" t="s">
+      <c r="X14" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="W14" s="20" t="s">
+      <c r="Y14" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="X14" s="20" t="s">
+      <c r="Z14" s="20" t="s">
         <v>138</v>
-      </c>
-      <c r="Y14" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z14" s="20" t="s">
-        <v>140</v>
       </c>
       <c r="AA14" s="10"/>
       <c r="AB14" s="10"/>
@@ -2218,70 +2211,70 @@
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="E15" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="F15" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="G15" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="H15" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="I15" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="J15" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="I15" s="20" t="s">
+      <c r="K15" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="J15" s="20" t="s">
+      <c r="L15" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="K15" s="20" t="s">
+      <c r="M15" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="L15" s="20" t="s">
+      <c r="N15" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="M15" s="20" t="s">
+      <c r="O15" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="N15" s="20" t="s">
+      <c r="P15" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="O15" s="20" t="s">
+      <c r="Q15" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="P15" s="20" t="s">
+      <c r="R15" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="Q15" s="20" t="s">
+      <c r="S15" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="R15" s="20" t="s">
+      <c r="T15" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="S15" s="20" t="s">
+      <c r="U15" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="T15" s="20" t="s">
+      <c r="V15" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="U15" s="20" t="s">
+      <c r="W15" s="20" t="s">
         <v>160</v>
-      </c>
-      <c r="V15" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="W15" s="20" t="s">
-        <v>162</v>
       </c>
       <c r="X15" s="10"/>
       <c r="Y15" s="10"/>
@@ -2292,157 +2285,157 @@
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="E16" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="F16" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="G16" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="H16" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="I16" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="J16" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="I16" s="20" t="s">
+      <c r="K16" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="J16" s="20" t="s">
+      <c r="L16" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="K16" s="20" t="s">
+      <c r="M16" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="L16" s="20" t="s">
+      <c r="N16" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="M16" s="20" t="s">
+      <c r="O16" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="N16" s="20" t="s">
+      <c r="P16" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="O16" s="20" t="s">
+      <c r="Q16" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="P16" s="20" t="s">
+      <c r="R16" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="Q16" s="20" t="s">
+      <c r="S16" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="R16" s="20" t="s">
+      <c r="T16" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="S16" s="20" t="s">
+      <c r="U16" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="T16" s="20" t="s">
+      <c r="V16" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="U16" s="20" t="s">
+      <c r="W16" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="V16" s="20" t="s">
+      <c r="X16" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="W16" s="20" t="s">
+      <c r="Y16" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="X16" s="20" t="s">
+      <c r="Z16" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="Y16" s="20" t="s">
+      <c r="AA16" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="Z16" s="20" t="s">
+      <c r="AB16" s="20" t="s">
         <v>187</v>
-      </c>
-      <c r="AA16" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="AB16" s="20" t="s">
-        <v>189</v>
       </c>
       <c r="AC16" s="11"/>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D17" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="E17" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="F17" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="G17" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="H17" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="I17" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="H17" s="20" t="s">
+      <c r="J17" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="I17" s="20" t="s">
+      <c r="K17" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="J17" s="20" t="s">
+      <c r="L17" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="K17" s="20" t="s">
+      <c r="M17" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="L17" s="20" t="s">
+      <c r="N17" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="M17" s="20" t="s">
+      <c r="O17" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="N17" s="20" t="s">
+      <c r="P17" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="O17" s="20" t="s">
+      <c r="Q17" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="P17" s="20" t="s">
+      <c r="R17" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="Q17" s="20" t="s">
+      <c r="S17" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="R17" s="20" t="s">
+      <c r="T17" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="S17" s="20" t="s">
+      <c r="U17" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="T17" s="20" t="s">
+      <c r="V17" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="U17" s="20" t="s">
+      <c r="W17" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="V17" s="20" t="s">
+      <c r="X17" s="20" t="s">
         <v>210</v>
-      </c>
-      <c r="W17" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="X17" s="20" t="s">
-        <v>212</v>
       </c>
       <c r="Y17" s="10"/>
       <c r="Z17" s="10"/>
@@ -2452,156 +2445,156 @@
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="D18" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="E18" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="F18" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="G18" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="H18" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="I18" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="H18" s="20" t="s">
+      <c r="J18" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="I18" s="20" t="s">
+      <c r="K18" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="J18" s="20" t="s">
+      <c r="L18" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="K18" s="20" t="s">
+      <c r="M18" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="L18" s="20" t="s">
+      <c r="N18" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="M18" s="20" t="s">
+      <c r="O18" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="N18" s="20" t="s">
+      <c r="P18" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="O18" s="20" t="s">
+      <c r="Q18" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="P18" s="20" t="s">
+      <c r="R18" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="Q18" s="20" t="s">
+      <c r="S18" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="R18" s="20" t="s">
+      <c r="T18" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="S18" s="20" t="s">
+      <c r="U18" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="T18" s="20" t="s">
+      <c r="V18" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="U18" s="20" t="s">
+      <c r="W18" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="V18" s="20" t="s">
+      <c r="X18" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="W18" s="20" t="s">
+      <c r="Y18" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="X18" s="20" t="s">
+      <c r="Z18" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="Y18" s="20" t="s">
+      <c r="AA18" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="Z18" s="20" t="s">
+      <c r="AB18" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="AA18" s="20" t="s">
+      <c r="AC18" s="23" t="s">
         <v>238</v>
-      </c>
-      <c r="AB18" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="AC18" s="23" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="D19" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="E19" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="F19" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="G19" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="H19" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="I19" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="H19" s="20" t="s">
+      <c r="J19" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="I19" s="20" t="s">
+      <c r="K19" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="J19" s="20" t="s">
+      <c r="L19" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="K19" s="20" t="s">
+      <c r="M19" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="L19" s="20" t="s">
+      <c r="N19" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="M19" s="20" t="s">
+      <c r="O19" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="N19" s="20" t="s">
+      <c r="P19" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="O19" s="20" t="s">
+      <c r="Q19" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="P19" s="20" t="s">
+      <c r="R19" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="Q19" s="20" t="s">
+      <c r="S19" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="R19" s="20" t="s">
+      <c r="T19" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="S19" s="20" t="s">
+      <c r="U19" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="T19" s="20" t="s">
+      <c r="V19" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="U19" s="20" t="s">
+      <c r="W19" s="20" t="s">
         <v>260</v>
-      </c>
-      <c r="V19" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="W19" s="20" t="s">
-        <v>262</v>
       </c>
       <c r="X19" s="10"/>
       <c r="Y19" s="10"/>
@@ -2612,73 +2605,73 @@
     </row>
     <row r="20" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="D20" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="E20" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="F20" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="G20" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="H20" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="I20" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="H20" s="20" t="s">
+      <c r="J20" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="I20" s="20" t="s">
+      <c r="K20" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="J20" s="20" t="s">
+      <c r="L20" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="K20" s="20" t="s">
+      <c r="M20" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="L20" s="20" t="s">
+      <c r="N20" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="M20" s="20" t="s">
+      <c r="O20" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="N20" s="20" t="s">
+      <c r="P20" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="O20" s="20" t="s">
+      <c r="Q20" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="P20" s="20" t="s">
+      <c r="R20" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="Q20" s="20" t="s">
+      <c r="S20" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="R20" s="20" t="s">
+      <c r="T20" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="S20" s="20" t="s">
+      <c r="U20" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="T20" s="20" t="s">
+      <c r="V20" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="U20" s="20" t="s">
+      <c r="W20" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="V20" s="20" t="s">
+      <c r="X20" s="20" t="s">
         <v>283</v>
-      </c>
-      <c r="W20" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="X20" s="20" t="s">
-        <v>285</v>
       </c>
       <c r="Y20" s="10"/>
       <c r="Z20" s="10"/>
@@ -2688,79 +2681,79 @@
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="D21" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="E21" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="F21" s="22" t="s">
         <v>288</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="G21" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="H21" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="I21" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="H21" s="22" t="s">
+      <c r="J21" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="I21" s="22" t="s">
+      <c r="K21" s="22" t="s">
         <v>293</v>
       </c>
-      <c r="J21" s="22" t="s">
+      <c r="L21" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="K21" s="22" t="s">
+      <c r="M21" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="L21" s="22" t="s">
+      <c r="N21" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="M21" s="22" t="s">
+      <c r="O21" s="22" t="s">
         <v>297</v>
       </c>
-      <c r="N21" s="22" t="s">
+      <c r="P21" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="O21" s="22" t="s">
+      <c r="Q21" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="P21" s="22" t="s">
+      <c r="R21" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="Q21" s="22" t="s">
+      <c r="S21" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="R21" s="22" t="s">
+      <c r="T21" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="S21" s="22" t="s">
+      <c r="U21" s="22" t="s">
         <v>303</v>
       </c>
-      <c r="T21" s="22" t="s">
+      <c r="V21" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="U21" s="22" t="s">
+      <c r="W21" s="22" t="s">
         <v>305</v>
       </c>
-      <c r="V21" s="22" t="s">
+      <c r="X21" s="22" t="s">
         <v>306</v>
       </c>
-      <c r="W21" s="22" t="s">
+      <c r="Y21" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="X21" s="22" t="s">
+      <c r="Z21" s="22" t="s">
         <v>308</v>
-      </c>
-      <c r="Y21" s="22" t="s">
-        <v>309</v>
-      </c>
-      <c r="Z21" s="22" t="s">
-        <v>310</v>
       </c>
       <c r="AA21" s="15"/>
       <c r="AB21" s="15"/>
@@ -2768,12 +2761,12 @@
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B23" s="24" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B24" s="24" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.25">
@@ -2782,7 +2775,7 @@
         <v>0.5</v>
       </c>
       <c r="C25" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.25">
@@ -2791,7 +2784,7 @@
         <v>0.42028985507246375</v>
       </c>
       <c r="C26" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.25">
@@ -2800,18 +2793,18 @@
         <v>0.80555555555555558</v>
       </c>
       <c r="C27" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="28" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B28" s="26" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C9:AC21" numberStoredAsText="1"/>
+    <ignoredError sqref="C9:AC9 C11:AC21 C10:V10 Y10:AC10" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/fullstackopen.xlsx
+++ b/fullstackopen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olenj\Desktop\Reactihommia\Full Stack Open\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF7157A-21D7-4039-A3AF-624372FA7D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A831A8F3-21A5-41CD-9D99-E65209847535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A39D8CF8-623D-4699-BD5A-AA6F35350729}"/>
   </bookViews>
@@ -1241,7 +1241,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1303,9 +1303,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20 % - Aksentti4" xfId="4" builtinId="42"/>
@@ -1318,8 +1315,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFEB9C"/>
       <color rgb="FFC6EFCE"/>
-      <color rgb="FFFFEB9C"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1653,7 +1650,7 @@
   <dimension ref="B3:AC28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U25" sqref="U25"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1889,8 +1886,8 @@
       <c r="V10" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="W10" s="27"/>
-      <c r="X10" s="27"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
       <c r="AA10" s="10"/>
@@ -2216,7 +2213,7 @@
       <c r="C15" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="20" t="s">
         <v>141</v>
       </c>
       <c r="E15" s="20" t="s">
@@ -2228,7 +2225,7 @@
       <c r="G15" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="25" t="s">
         <v>145</v>
       </c>
       <c r="I15" s="20" t="s">
@@ -2771,17 +2768,21 @@
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B25">
-        <f>58/116</f>
-        <v>0.5</v>
+        <f>59/116</f>
+        <v>0.50862068965517238</v>
       </c>
       <c r="C25" t="s">
         <v>313</v>
+      </c>
+      <c r="K25">
+        <f>59/295</f>
+        <v>0.2</v>
       </c>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B26">
-        <f>58/138</f>
-        <v>0.42028985507246375</v>
+        <f>59/138</f>
+        <v>0.42753623188405798</v>
       </c>
       <c r="C26" t="s">
         <v>312</v>
@@ -2789,8 +2790,8 @@
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B27">
-        <f>58/72</f>
-        <v>0.80555555555555558</v>
+        <f>59/72</f>
+        <v>0.81944444444444442</v>
       </c>
       <c r="C27" t="s">
         <v>314</v>

--- a/fullstackopen.xlsx
+++ b/fullstackopen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olenj\Desktop\Reactihommia\Full Stack Open\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A831A8F3-21A5-41CD-9D99-E65209847535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B754B87D-4EE5-4D51-90E4-56E7769215DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A39D8CF8-623D-4699-BD5A-AA6F35350729}"/>
   </bookViews>
@@ -971,9 +971,6 @@
     <t>Maali 7op arvosana 5</t>
   </si>
   <si>
-    <t>Tehty: 58</t>
-  </si>
-  <si>
     <t>7op 5/5</t>
   </si>
   <si>
@@ -981,6 +978,9 @@
   </si>
   <si>
     <t>5op 1/5</t>
+  </si>
+  <si>
+    <t>Tehty: 63</t>
   </si>
 </sst>
 </file>
@@ -1315,8 +1315,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFC6EFCE"/>
       <color rgb="FFFFEB9C"/>
-      <color rgb="FFC6EFCE"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1650,7 +1650,7 @@
   <dimension ref="B3:AC28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1974,16 +1974,16 @@
       <c r="B12" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="19" t="s">
         <v>70</v>
       </c>
       <c r="G12" s="20" t="s">
@@ -2763,38 +2763,38 @@
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B24" s="24" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B25">
-        <f>59/116</f>
-        <v>0.50862068965517238</v>
+        <f>63/116</f>
+        <v>0.5431034482758621</v>
       </c>
       <c r="C25" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K25">
-        <f>59/295</f>
-        <v>0.2</v>
+        <f>63/295</f>
+        <v>0.2135593220338983</v>
       </c>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B26">
-        <f>59/138</f>
-        <v>0.42753623188405798</v>
+        <f>63/138</f>
+        <v>0.45652173913043476</v>
       </c>
       <c r="C26" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B27">
-        <f>59/72</f>
-        <v>0.81944444444444442</v>
+        <f>63/72</f>
+        <v>0.875</v>
       </c>
       <c r="C27" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="28" spans="2:29" x14ac:dyDescent="0.25">

--- a/fullstackopen.xlsx
+++ b/fullstackopen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olenj\Desktop\Reactihommia\Full Stack Open\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B754B87D-4EE5-4D51-90E4-56E7769215DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C456D6-7719-4252-A411-5C5F21DF167C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A39D8CF8-623D-4699-BD5A-AA6F35350729}"/>
   </bookViews>
@@ -965,9 +965,6 @@
     <t>13.24</t>
   </si>
   <si>
-    <t>Yhteensä: 297</t>
-  </si>
-  <si>
     <t>Maali 7op arvosana 5</t>
   </si>
   <si>
@@ -980,7 +977,10 @@
     <t>5op 1/5</t>
   </si>
   <si>
-    <t>Tehty: 63</t>
+    <t xml:space="preserve">Tehty: </t>
+  </si>
+  <si>
+    <t>Yhteensä:</t>
   </si>
 </sst>
 </file>
@@ -1241,7 +1241,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1299,9 +1299,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
@@ -1315,8 +1312,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFEB9C"/>
       <color rgb="FFC6EFCE"/>
-      <color rgb="FFFFEB9C"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1650,7 +1647,7 @@
   <dimension ref="B3:AC28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1986,7 +1983,7 @@
       <c r="F12" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="19" t="s">
         <v>71</v>
       </c>
       <c r="H12" s="20" t="s">
@@ -2225,7 +2222,7 @@
       <c r="G15" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="H15" s="25" t="s">
+      <c r="H15" s="20" t="s">
         <v>145</v>
       </c>
       <c r="I15" s="20" t="s">
@@ -2758,21 +2755,27 @@
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B23" s="24" t="s">
-        <v>309</v>
+        <v>314</v>
+      </c>
+      <c r="C23">
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B24" s="24" t="s">
-        <v>314</v>
+        <v>313</v>
+      </c>
+      <c r="C24">
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B25">
-        <f>63/116</f>
-        <v>0.5431034482758621</v>
+        <f>C24/116</f>
+        <v>0.55172413793103448</v>
       </c>
       <c r="C25" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K25">
         <f>63/295</f>
@@ -2781,25 +2784,25 @@
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B26">
-        <f>63/138</f>
-        <v>0.45652173913043476</v>
+        <f>C24/138</f>
+        <v>0.46376811594202899</v>
       </c>
       <c r="C26" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B27">
-        <f>63/72</f>
-        <v>0.875</v>
+        <f>C24/72</f>
+        <v>0.88888888888888884</v>
       </c>
       <c r="C27" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="28" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B28" s="26" t="s">
-        <v>310</v>
+      <c r="B28" s="25" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>

--- a/fullstackopen.xlsx
+++ b/fullstackopen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olenj\Desktop\Reactihommia\Full Stack Open\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C456D6-7719-4252-A411-5C5F21DF167C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB236F6-F447-4EBD-B055-EB24D13F4635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A39D8CF8-623D-4699-BD5A-AA6F35350729}"/>
   </bookViews>
@@ -1312,8 +1312,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFC6EFCE"/>
       <color rgb="FFFFEB9C"/>
-      <color rgb="FFC6EFCE"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1647,7 +1647,7 @@
   <dimension ref="B3:AC28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X25" sqref="X25"/>
+      <selection activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1986,10 +1986,10 @@
       <c r="G12" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="19" t="s">
         <v>73</v>
       </c>
       <c r="J12" s="20" t="s">
@@ -2766,13 +2766,13 @@
         <v>313</v>
       </c>
       <c r="C24">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B25">
         <f>C24/116</f>
-        <v>0.55172413793103448</v>
+        <v>0.56896551724137934</v>
       </c>
       <c r="C25" t="s">
         <v>311</v>
@@ -2785,7 +2785,7 @@
     <row r="26" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B26">
         <f>C24/138</f>
-        <v>0.46376811594202899</v>
+        <v>0.47826086956521741</v>
       </c>
       <c r="C26" t="s">
         <v>310</v>
@@ -2794,7 +2794,7 @@
     <row r="27" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B27">
         <f>C24/72</f>
-        <v>0.88888888888888884</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="C27" t="s">
         <v>312</v>

--- a/fullstackopen.xlsx
+++ b/fullstackopen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olenj\Desktop\Reactihommia\Full Stack Open\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB236F6-F447-4EBD-B055-EB24D13F4635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27BAFAC-0835-47F7-85D0-A7DD75881F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A39D8CF8-623D-4699-BD5A-AA6F35350729}"/>
   </bookViews>
@@ -1647,7 +1647,7 @@
   <dimension ref="B3:AC28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1992,19 +1992,19 @@
       <c r="I12" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="J12" s="20" t="s">
+      <c r="J12" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="K12" s="20" t="s">
+      <c r="K12" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="L12" s="20" t="s">
+      <c r="L12" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="M12" s="20" t="s">
+      <c r="M12" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="N12" s="20" t="s">
+      <c r="N12" s="19" t="s">
         <v>78</v>
       </c>
       <c r="O12" s="20" t="s">
@@ -2766,13 +2766,13 @@
         <v>313</v>
       </c>
       <c r="C24">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B25">
         <f>C24/116</f>
-        <v>0.56896551724137934</v>
+        <v>0.61206896551724133</v>
       </c>
       <c r="C25" t="s">
         <v>311</v>
@@ -2785,7 +2785,7 @@
     <row r="26" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B26">
         <f>C24/138</f>
-        <v>0.47826086956521741</v>
+        <v>0.51449275362318836</v>
       </c>
       <c r="C26" t="s">
         <v>310</v>
@@ -2794,7 +2794,7 @@
     <row r="27" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B27">
         <f>C24/72</f>
-        <v>0.91666666666666663</v>
+        <v>0.98611111111111116</v>
       </c>
       <c r="C27" t="s">
         <v>312</v>
